--- a/doc/工作流引擎v1.0.xlsx
+++ b/doc/工作流引擎v1.0.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lyric/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lyric/go/src/gitee.com/antlinker/flow/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="数据模型" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="148">
   <si>
     <t>p_flows</t>
   </si>
@@ -253,9 +253,6 @@
     <t>content</t>
   </si>
   <si>
-    <t>varchar(2048)</t>
-  </si>
-  <si>
     <t>p_node_routers</t>
   </si>
   <si>
@@ -278,9 +275,6 @@
   </si>
   <si>
     <t>expression</t>
-  </si>
-  <si>
-    <t>varchar(1024)</t>
   </si>
   <si>
     <t>使用qlang作为表达式脚本语言(返回值bool)</t>
@@ -957,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G145"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1074,10 +1068,10 @@
     <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>10</v>
@@ -2099,7 +2093,7 @@
         <v>74</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -2206,7 +2200,7 @@
     </row>
     <row r="77" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>1</v>
@@ -2229,7 +2223,7 @@
     </row>
     <row r="78" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>8</v>
@@ -2274,10 +2268,10 @@
     <row r="80" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>15</v>
@@ -2289,10 +2283,10 @@
     <row r="81" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>15</v>
@@ -2304,27 +2298,27 @@
     <row r="82" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="D82" s="3" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>30</v>
@@ -2336,10 +2330,10 @@
     <row r="84" spans="1:7" ht="35" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>10</v>
@@ -2347,7 +2341,7 @@
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -2451,7 +2445,7 @@
     </row>
     <row r="92" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>1</v>
@@ -2474,7 +2468,7 @@
     </row>
     <row r="93" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>8</v>
@@ -2519,10 +2513,10 @@
     <row r="95" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>15</v>
@@ -2530,24 +2524,24 @@
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="35" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -2651,7 +2645,7 @@
     </row>
     <row r="104" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>1</v>
@@ -2674,7 +2668,7 @@
     </row>
     <row r="105" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>8</v>
@@ -2736,10 +2730,10 @@
     <row r="108" spans="1:7" ht="86" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>10</v>
@@ -2747,16 +2741,16 @@
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>15</v>
@@ -2768,10 +2762,10 @@
     <row r="110" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>10</v>
@@ -2881,7 +2875,7 @@
     </row>
     <row r="118" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>1</v>
@@ -2904,7 +2898,7 @@
     </row>
     <row r="119" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>8</v>
@@ -2949,10 +2943,10 @@
     <row r="121" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>15</v>
@@ -2966,10 +2960,10 @@
     <row r="122" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>15</v>
@@ -2981,10 +2975,10 @@
     <row r="123" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>15</v>
@@ -2996,10 +2990,10 @@
     <row r="124" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>10</v>
@@ -3007,19 +3001,19 @@
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
       <c r="G124" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
@@ -3028,13 +3022,13 @@
     <row r="126" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
@@ -3043,10 +3037,10 @@
     <row r="127" spans="1:7" ht="35" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>10</v>
@@ -3054,7 +3048,7 @@
       <c r="E127" s="3"/>
       <c r="F127" s="3"/>
       <c r="G127" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -3158,7 +3152,7 @@
     </row>
     <row r="135" spans="1:7" ht="21" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>1</v>
@@ -3181,7 +3175,7 @@
     </row>
     <row r="136" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>8</v>
@@ -3226,10 +3220,10 @@
     <row r="138" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>15</v>
@@ -3241,10 +3235,10 @@
     <row r="139" spans="1:7" ht="18" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
       <c r="B139" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>15</v>
@@ -3252,7 +3246,7 @@
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
       <c r="G139" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="18" x14ac:dyDescent="0.2">
@@ -3365,8 +3359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3380,16 +3374,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>6</v>
@@ -3397,55 +3391,55 @@
     </row>
     <row r="2" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="35" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="10"/>
       <c r="E5" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -3454,7 +3448,7 @@
     </row>
     <row r="7" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -3463,7 +3457,7 @@
     </row>
     <row r="8" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3472,7 +3466,7 @@
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3481,7 +3475,7 @@
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>

--- a/doc/工作流引擎v1.0.xlsx
+++ b/doc/工作流引擎v1.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16740" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="数据模型" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="147">
   <si>
     <t>p_flows</t>
   </si>
@@ -455,9 +455,6 @@
   </si>
   <si>
     <t>流程办理接口</t>
-  </si>
-  <si>
-    <t>统一的数据存储接口</t>
   </si>
   <si>
     <t>待办列表查询接口</t>
@@ -536,7 +533,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -620,24 +617,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -667,9 +651,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -951,8 +932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C126" sqref="C126"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3357,10 +3338,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3396,7 +3377,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>134</v>
@@ -3409,7 +3390,7 @@
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>136</v>
@@ -3422,7 +3403,7 @@
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -3434,12 +3415,12 @@
       <c r="C5" s="3"/>
       <c r="D5" s="10"/>
       <c r="E5" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -3466,7 +3447,7 @@
     </row>
     <row r="9" spans="1:5" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3474,12 +3455,10 @@
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>141</v>
-      </c>
+      <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="11"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="18" x14ac:dyDescent="0.2">
@@ -3762,16 +3741,9 @@
       <c r="D50" s="4"/>
       <c r="E50" s="3"/>
     </row>
-    <row r="51" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="3"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="D4:D10"/>
+    <mergeCell ref="D4:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
